--- a/example_data/Summary/before/Individual Values/Indv AUC_before_.xlsx
+++ b/example_data/Summary/before/Individual Values/Indv AUC_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,308 +438,1235 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.538210245590802</v>
+        <v>0.743562841921995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4534475014205518</v>
+        <v>0.5546882967745217</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1977380021365628</v>
+        <v>0.1914063976494865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3939178691482793</v>
+        <v>0.1871557653741429</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.538210245590802</v>
+        <v>0.743562841921995</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4534475014205518</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>0.538210245590802</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.4534475014205518</v>
+        <v>0.5546882967745217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2613747537146174</v>
+        <v>0.7245666397340225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4938908939382265</v>
+        <v>0.6669169815142357</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3106953572221895</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2545073079139507</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.1977380021365628</v>
+        <v>0.7245666397340225</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3939178691482793</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1977380021365628</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.3939178691482793</v>
+        <v>0.6669169815142357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5318728424628109</v>
+        <v>0.7447916201833062</v>
       </c>
       <c r="C4" t="n">
-        <v>1.082113288767201</v>
+        <v>0.9294925656344105</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3615077851573758</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2130339494912605</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.2613747537146174</v>
+        <v>0.7447916201833062</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4938908939382265</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2613747537146174</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4938908939382265</v>
+        <v>0.9294925656344105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.073487454734001</v>
+        <v>0.8920981722417739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.884603119771417</v>
+        <v>1.042994818299451</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2472037611229115</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.187706531843351</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.5318728424628109</v>
+        <v>0.8920981722417739</v>
       </c>
       <c r="I5" t="n">
-        <v>1.082113288767201</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5318728424628109</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.082113288767201</v>
+        <v>1.042994818299451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8715807758330689</v>
+        <v>1.055588956878449</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8285084756691613</v>
+        <v>0.6044379767057567</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1483470934342921</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2186519660426273</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.073487454734001</v>
+        <v>1.055588956878449</v>
       </c>
       <c r="I6" t="n">
-        <v>0.884603119771417</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1.073487454734001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.884603119771417</v>
+        <v>0.6044379767057567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.190640743926704</v>
+        <v>0.4795320855953463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9570844833190322</v>
+        <v>0.7758653764595942</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2219761149748005</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2599082952286779</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8715807758330689</v>
+        <v>0.4795320855953463</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8285084756691613</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>0.8715807758330689</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8285084756691613</v>
+        <v>0.7758653764595942</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4960979511680785</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.466389609639365</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.250513053438112</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2626910534888662</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.190640743926704</v>
+        <v>0.4960979511680785</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9570844833190322</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1.190640743926704</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9570844833190322</v>
+        <v>1.466389609639365</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.2972483085967</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.29030289888469</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2514491313214609</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2510518113876522</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1.2972483085967</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.29030289888469</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.447375988862996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.038766806605326</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1617239432650928</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1649912248922805</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.447375988862996</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.038766806605326</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.044739038600879</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8268809927530415</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1713051630645221</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.148822732765739</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1.044739038600879</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8268809927530415</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.419327531573197</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.230263636731361</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1637690197424963</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1655293605707894</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1.419327531573197</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.230263636731361</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3896410511347669</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7173703151077848</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7632808324288389</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4689259149420247</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1914063976494865</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1871557653741429</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2487365894115788</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4065610936277809</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4607005895228039</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4023641501670319</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0.3106953572221895</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2545073079139507</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3554018381714967</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3178750963998038</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3870814785643232</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9234154979639794</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3615077851573758</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2130339494912605</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2944863595539903</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2722656059046526</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.15074670164631</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.284249246249934</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2472037611229115</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.187706531843351</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1754876100983482</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.06335367054355348</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1483470934342921</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2186519660426273</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.06154876675627772</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1386159685603252</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2219761149748005</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2599082952286779</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1321265068353273</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.203497143740295</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0.250513053438112</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2626910534888662</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1682259228310369</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1835753402182548</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2514491313214609</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2510518113876522</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.1981998203184352</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1276162847361043</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3896410511347669</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7173703151077848</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1225210767557494</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1856855595149749</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>0.2487365894115788</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4065610936277809</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1109397667775057</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9570649523420676</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3554018381714967</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3178750963998038</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3574761639374845</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.269745968945254</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2944863595539903</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2722656059046526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.102105916379821</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.932058824128271</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1754876100983482</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06335367054355348</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6769920080167279</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.581450237519504</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>0.06154876675627772</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1386159685603252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2423971878121977</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2236732027539598</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1321265068353273</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.203497143740295</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2464877436901282</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3225687858471091</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1682259228310369</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1835753402182548</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3062771227901575</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3475090148529893</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1617239432650928</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1649912248922805</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3465561781934839</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2452034211464137</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1713051630645221</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.148822732765739</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2940570398288803</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5404140483929902</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1981998203184352</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1276162847361043</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1176632228398765</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.3765042219544341</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1225210767557494</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1856855595149749</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3758702622260628</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.330619439656831</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1637690197424963</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1655293605707894</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4324744369629909</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.7632302707869026</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1109397667775057</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9570649523420676</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.229049764175981</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.196769543845789</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3574761639374845</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.269745968945254</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.255107085127414</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6863794109393444</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1.102105916379821</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.932058824128271</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6769920080167279</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.581450237519504</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.2423971878121977</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.2236732027539598</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>0.2464877436901282</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.3225687858471091</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.3062771227901575</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.3475090148529893</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3465561781934839</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.2452034211464137</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>0.2940570398288803</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5404140483929902</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.1176632228398765</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.3765042219544341</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.3758702622260628</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.330619439656831</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4324744369629909</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.7632302707869026</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0.7632808324288389</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.4689259149420247</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.4607005895228039</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4023641501670319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3870814785643232</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9234154979639794</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1.15074670164631</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.284249246249934</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1.255107085127414</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.6863794109393444</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,308 +1691,1235 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.17506183206049</v>
+        <v>62.48514145631331</v>
       </c>
       <c r="C2" t="n">
-        <v>77.65840918756936</v>
+        <v>46.61311019594166</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>33.86504200320127</v>
+        <v>36.58851973864563</v>
       </c>
       <c r="F2" t="n">
-        <v>67.46323438276195</v>
+        <v>35.77598502288895</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>92.17506183206049</v>
+        <v>62.48514145631331</v>
       </c>
       <c r="I2" t="n">
-        <v>77.65840918756936</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>92.17506183206049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>77.65840918756936</v>
+        <v>46.61311019594166</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.76361102813642</v>
+        <v>60.88879974324435</v>
       </c>
       <c r="C3" t="n">
-        <v>84.5848328975506</v>
+        <v>56.04422327212828</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>59.39134402000033</v>
+      </c>
+      <c r="F3" t="n">
+        <v>48.65064999703852</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>33.86504200320127</v>
+        <v>60.88879974324435</v>
       </c>
       <c r="I3" t="n">
-        <v>67.46323438276195</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>33.86504200320127</v>
-      </c>
-      <c r="L3" t="n">
-        <v>67.46323438276195</v>
+        <v>56.04422327212828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.11206139060402</v>
+        <v>62.58840156984724</v>
       </c>
       <c r="C4" t="n">
-        <v>55.16040597371944</v>
+        <v>78.10970528883783</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>69.10445468560955</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40.72276037625711</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>44.76361102813642</v>
+        <v>62.58840156984724</v>
       </c>
       <c r="I4" t="n">
-        <v>84.5848328975506</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>44.76361102813642</v>
-      </c>
-      <c r="L4" t="n">
-        <v>84.5848328975506</v>
+        <v>78.10970528883783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.72070662608893</v>
+        <v>74.96727558542203</v>
       </c>
       <c r="C5" t="n">
-        <v>45.09238331949511</v>
+        <v>87.64784236821774</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>47.25453174180957</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35.88126744854176</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>27.11206139060402</v>
+        <v>74.96727558542203</v>
       </c>
       <c r="I5" t="n">
-        <v>55.16040597371944</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>27.11206139060402</v>
-      </c>
-      <c r="L5" t="n">
-        <v>55.16040597371944</v>
+        <v>87.64784236821774</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.42857317519216</v>
+        <v>88.70618806041901</v>
       </c>
       <c r="C6" t="n">
-        <v>42.23297536863554</v>
+        <v>50.79381371237106</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>28.35746674586593</v>
+      </c>
+      <c r="F6" t="n">
+        <v>41.79667907493167</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>54.72070662608893</v>
+        <v>88.70618806041901</v>
       </c>
       <c r="I6" t="n">
-        <v>45.09238331949511</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>54.72070662608893</v>
-      </c>
-      <c r="L6" t="n">
-        <v>45.09238331949511</v>
+        <v>50.79381371237106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.69256101518728</v>
+        <v>40.29737436020176</v>
       </c>
       <c r="C7" t="n">
-        <v>48.78709946457641</v>
+        <v>65.19967790996665</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>42.43211075492048</v>
+      </c>
+      <c r="F7" t="n">
+        <v>49.68308221142539</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>44.42857317519216</v>
+        <v>40.29737436020176</v>
       </c>
       <c r="I7" t="n">
-        <v>42.23297536863554</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>44.42857317519216</v>
-      </c>
-      <c r="L7" t="n">
-        <v>42.23297536863554</v>
+        <v>65.19967790996665</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18.99950304741084</v>
+      </c>
+      <c r="C8" t="n">
+        <v>56.1596228959137</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>47.88712348734462</v>
+      </c>
+      <c r="F8" t="n">
+        <v>50.21502370753582</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>60.69256101518728</v>
+        <v>18.99950304741084</v>
       </c>
       <c r="I8" t="n">
-        <v>48.78709946457641</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>60.69256101518728</v>
-      </c>
-      <c r="L8" t="n">
-        <v>48.78709946457641</v>
+        <v>56.1596228959137</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49.68186853906417</v>
+      </c>
+      <c r="C9" t="n">
+        <v>49.41587402592791</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>48.06606057895917</v>
+      </c>
+      <c r="F9" t="n">
+        <v>47.9901104100033</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>49.68186853906417</v>
+      </c>
+      <c r="I9" t="n">
+        <v>49.41587402592791</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>55.4314414046732</v>
+      </c>
+      <c r="C10" t="n">
+        <v>39.78257330266722</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>45.48601808668235</v>
+      </c>
+      <c r="F10" t="n">
+        <v>46.40496446028726</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>55.4314414046732</v>
+      </c>
+      <c r="I10" t="n">
+        <v>39.78257330266722</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40.01129716603371</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31.66779444395414</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>48.18080482197082</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41.85746017332626</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>40.01129716603371</v>
+      </c>
+      <c r="I11" t="n">
+        <v>31.66779444395414</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.43871687447464</v>
+      </c>
+      <c r="C12" t="n">
+        <v>124.8262135783151</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>46.06121050260894</v>
+      </c>
+      <c r="F12" t="n">
+        <v>46.55631897657939</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>79.43871687447464</v>
+      </c>
+      <c r="I12" t="n">
+        <v>124.8262135783151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.31581103552949</v>
+      </c>
+      <c r="C13" t="n">
+        <v>98.16003742777139</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>53.86788893419357</v>
+      </c>
+      <c r="F13" t="n">
+        <v>33.09404354368757</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>36.58851973864563</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.77598502288895</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>34.03541018090257</v>
+      </c>
+      <c r="C14" t="n">
+        <v>55.63103368890092</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>32.51354826946424</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28.39650418487297</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>59.39134402000033</v>
+      </c>
+      <c r="I14" t="n">
+        <v>48.65064999703852</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>48.63075179180116</v>
+      </c>
+      <c r="C15" t="n">
+        <v>43.49584963698003</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>27.31794276745494</v>
+      </c>
+      <c r="F15" t="n">
+        <v>65.1692553658803</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>69.10445468560955</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40.72276037625711</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>40.29549518151526</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37.25495954189299</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>81.21295974172418</v>
+      </c>
+      <c r="F16" t="n">
+        <v>90.63478712111237</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>47.25453174180957</v>
+      </c>
+      <c r="I16" t="n">
+        <v>35.88126744854176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>49.35714802500147</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17.81867388354603</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>28.35746674586593</v>
+      </c>
+      <c r="I17" t="n">
+        <v>41.79667907493167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17.31103175798782</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38.98673459070213</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>42.43211075492048</v>
+      </c>
+      <c r="I18" t="n">
+        <v>49.68308221142539</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>37.16152697186342</v>
+      </c>
+      <c r="C19" t="n">
+        <v>57.23503010056254</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>47.88712348734462</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50.21502370753582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>47.31474643800004</v>
+      </c>
+      <c r="C20" t="n">
+        <v>51.63188008438036</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>48.06606057895917</v>
+      </c>
+      <c r="I20" t="n">
+        <v>47.9901104100033</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>55.74511992329984</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35.89299468259112</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>53.31581103552949</v>
+      </c>
+      <c r="I21" t="n">
+        <v>98.16003742777139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>34.45993092177288</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52.22539438510537</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>34.03541018090257</v>
+      </c>
+      <c r="I22" t="n">
+        <v>55.63103368890092</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2.680176364947797</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23.1215815527314</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>48.63075179180116</v>
+      </c>
+      <c r="I23" t="n">
+        <v>43.49584963698003</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8.636210381972028</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30.67559302048971</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>40.29549518151526</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37.25495954189299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>26.6256033751574</v>
+      </c>
+      <c r="C25" t="n">
+        <v>46.6763050485101</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>49.35714802500147</v>
+      </c>
+      <c r="I25" t="n">
+        <v>17.81867388354603</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>16.35534337100199</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38.20600738634571</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>17.31103175798782</v>
+      </c>
+      <c r="I26" t="n">
+        <v>38.98673459070213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>39.23432856445493</v>
+      </c>
+      <c r="C27" t="n">
+        <v>36.20367054221741</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>37.16152697186342</v>
+      </c>
+      <c r="I27" t="n">
+        <v>57.23503010056254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>39.89642458452232</v>
+      </c>
+      <c r="C28" t="n">
+        <v>52.2108768785226</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>47.31474643800004</v>
+      </c>
+      <c r="I28" t="n">
+        <v>51.63188008438036</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>49.57391369010038</v>
+      </c>
+      <c r="C29" t="n">
+        <v>56.24769408800103</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>45.48601808668235</v>
+      </c>
+      <c r="I29" t="n">
+        <v>46.40496446028726</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>56.09346826176638</v>
+      </c>
+      <c r="C30" t="n">
+        <v>39.68854456282062</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>48.18080482197082</v>
+      </c>
+      <c r="I30" t="n">
+        <v>41.85746017332626</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>47.59597510791228</v>
+      </c>
+      <c r="C31" t="n">
+        <v>87.47123894822212</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>55.74511992329984</v>
+      </c>
+      <c r="I31" t="n">
+        <v>35.89299468259112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>19.04493029196804</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60.94084870947248</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>34.45993092177288</v>
+      </c>
+      <c r="I32" t="n">
+        <v>52.22539438510537</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>60.83823619773484</v>
+      </c>
+      <c r="C33" t="n">
+        <v>53.51395303868841</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>46.06121050260894</v>
+      </c>
+      <c r="I33" t="n">
+        <v>46.55631897657939</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>30.52151180459813</v>
+      </c>
+      <c r="C34" t="n">
+        <v>53.86432058975672</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2.680176364947797</v>
+      </c>
+      <c r="I34" t="n">
+        <v>23.1215815527314</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>86.73913110139708</v>
+      </c>
+      <c r="C35" t="n">
+        <v>84.46098228691045</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8.636210381972028</v>
+      </c>
+      <c r="I35" t="n">
+        <v>30.67559302048971</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>88.57810413897205</v>
+      </c>
+      <c r="C36" t="n">
+        <v>48.44063718663458</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>26.6256033751574</v>
+      </c>
+      <c r="I36" t="n">
+        <v>46.6763050485101</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>16.35534337100199</v>
+      </c>
+      <c r="I37" t="n">
+        <v>38.20600738634571</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>39.23432856445493</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36.20367054221741</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>39.89642458452232</v>
+      </c>
+      <c r="I39" t="n">
+        <v>52.2108768785226</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>49.57391369010038</v>
+      </c>
+      <c r="I40" t="n">
+        <v>56.24769408800103</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>56.09346826176638</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39.68854456282062</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>47.59597510791228</v>
+      </c>
+      <c r="I42" t="n">
+        <v>87.47123894822212</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>19.04493029196804</v>
+      </c>
+      <c r="I43" t="n">
+        <v>60.94084870947248</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>60.83823619773484</v>
+      </c>
+      <c r="I44" t="n">
+        <v>53.51395303868841</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>30.52151180459813</v>
+      </c>
+      <c r="I45" t="n">
+        <v>53.86432058975672</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>53.86788893419357</v>
+      </c>
+      <c r="I46" t="n">
+        <v>33.09404354368757</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>32.51354826946424</v>
+      </c>
+      <c r="I47" t="n">
+        <v>28.39650418487297</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>27.31794276745494</v>
+      </c>
+      <c r="I48" t="n">
+        <v>65.1692553658803</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>81.21295974172418</v>
+      </c>
+      <c r="I49" t="n">
+        <v>90.63478712111237</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>88.57810413897205</v>
+      </c>
+      <c r="I50" t="n">
+        <v>48.44063718663458</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +2933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,329 +2944,1379 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6_baseline</t>
+          <t>Event 10_baseline</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Event 8_baseline</t>
+          <t>Event 15_baseline</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Group 1_baseline</t>
+          <t>Group 3_baseline</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2_baseline</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112.076891645697</v>
+        <v>43.43364371720303</v>
       </c>
       <c r="C2" t="n">
-        <v>19.23308937174595</v>
+        <v>69.50780949913346</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>260.8550840763515</v>
+        <v>102.7993796597276</v>
       </c>
       <c r="F2" t="n">
-        <v>45.97194218111096</v>
+        <v>108.0499055688192</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>112.076891645697</v>
+        <v>43.43364371720303</v>
       </c>
       <c r="I2" t="n">
-        <v>19.23308937174595</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>112.076891645697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.23308937174595</v>
+        <v>69.50780949913346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.1513712163433</v>
+        <v>32.07447046796618</v>
       </c>
       <c r="C3" t="n">
-        <v>63.53224904332103</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>2.398338833488467</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>44.55041028521127</v>
+      </c>
+      <c r="F3" t="n">
+        <v>24.85498391590821</v>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>260.8550840763515</v>
+        <v>32.07447046796618</v>
       </c>
       <c r="I3" t="n">
-        <v>45.97194218111096</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>260.8550840763515</v>
-      </c>
-      <c r="L3" t="n">
-        <v>45.97194218111096</v>
+        <v>2.398338833488467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.6253490169665</v>
+        <v>44.16841717439273</v>
       </c>
       <c r="C4" t="n">
-        <v>15.47596058696842</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>154.6141798545423</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>107.3156536879656</v>
+      </c>
+      <c r="F4" t="n">
+        <v>76.08429024722915</v>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>191.1513712163433</v>
+        <v>44.16841717439273</v>
       </c>
       <c r="I4" t="n">
-        <v>63.53224904332103</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>191.1513712163433</v>
-      </c>
-      <c r="L4" t="n">
-        <v>63.53224904332103</v>
+        <v>154.6141798545423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.93148764894332</v>
+        <v>132.2534264316279</v>
       </c>
       <c r="C5" t="n">
-        <v>65.68366366453027</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>222.4852068863128</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>33.87657392195362</v>
+      </c>
+      <c r="F5" t="n">
+        <v>107.3695800480231</v>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>210.6253490169665</v>
+        <v>132.2534264316279</v>
       </c>
       <c r="I5" t="n">
-        <v>15.47596058696842</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>210.6253490169665</v>
-      </c>
-      <c r="L5" t="n">
-        <v>15.47596058696842</v>
+        <v>222.4852068863128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>71.03472253042941</v>
+        <v>230.0161333645702</v>
       </c>
       <c r="C6" t="n">
-        <v>88.73371856047743</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>39.7589561314437</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>155.9877003057565</v>
+      </c>
+      <c r="F6" t="n">
+        <v>69.1447246603018</v>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11.93148764894332</v>
+        <v>230.0161333645702</v>
       </c>
       <c r="I6" t="n">
-        <v>65.68366366453027</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>11.93148764894332</v>
-      </c>
-      <c r="L6" t="n">
-        <v>65.68366366453027</v>
+        <v>39.7589561314437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.07137320040528</v>
+        <v>114.4490253849604</v>
       </c>
       <c r="C7" t="n">
-        <v>35.90008208657979</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>62.74961448710629</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>65.03862256455093</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.18350024155107</v>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>71.03472253042941</v>
+        <v>114.4490253849604</v>
       </c>
       <c r="I7" t="n">
-        <v>88.73371856047743</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>71.03472253042941</v>
-      </c>
-      <c r="L7" t="n">
-        <v>88.73371856047743</v>
+        <v>62.74961448710629</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>131.8083475404383</v>
+      </c>
+      <c r="C8" t="n">
+        <v>112.9276960479925</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>29.78882322601424</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.74614236220452</v>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>60.07137320040528</v>
+        <v>131.8083475404383</v>
       </c>
       <c r="I8" t="n">
-        <v>35.90008208657979</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>60.07137320040528</v>
-      </c>
-      <c r="L8" t="n">
-        <v>35.90008208657979</v>
+        <v>112.9276960479925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70.26529401332991</v>
+      </c>
+      <c r="C9" t="n">
+        <v>68.51345776988936</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>28.63254790952548</v>
+      </c>
+      <c r="F9" t="n">
+        <v>29.12333103813474</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>70.26529401332991</v>
+      </c>
+      <c r="I9" t="n">
+        <v>68.51345776988936</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>108.1319026569304</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.068670311719393</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>7.384512186301357</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1792447569074938</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>108.1319026569304</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.068670311719393</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.575042563014205</v>
+      </c>
+      <c r="C11" t="n">
+        <v>48.37515281299249</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>14.796011579788</v>
+      </c>
+      <c r="F11" t="n">
+        <v>37.25081439860273</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6.575042563014205</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48.37515281299249</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>106.4708480084898</v>
+      </c>
+      <c r="C12" t="n">
+        <v>143.0745952962371</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2.650160155965821</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.425028848747059</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>106.4708480084898</v>
+      </c>
+      <c r="I12" t="n">
+        <v>143.0745952962371</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>30.63205627857815</v>
+      </c>
+      <c r="C13" t="n">
+        <v>326.3945057144833</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>70.78685829900419</v>
+      </c>
+      <c r="F13" t="n">
+        <v>85.16872623166319</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>102.7993796597276</v>
+      </c>
+      <c r="I13" t="n">
+        <v>108.0499055688192</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.52854033853953</v>
+      </c>
+      <c r="C14" t="n">
+        <v>45.90171255408687</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>89.52668105933141</v>
+      </c>
+      <c r="F14" t="n">
+        <v>120.4345849491137</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>44.55041028521127</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24.85498391590821</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2674531824021464</v>
+      </c>
+      <c r="C15" t="n">
+        <v>34.13382486734985</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>128.5316740120047</v>
+      </c>
+      <c r="F15" t="n">
+        <v>155.6296582100145</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>107.3156536879656</v>
+      </c>
+      <c r="I15" t="n">
+        <v>76.08429024722915</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>55.24121703266819</v>
+      </c>
+      <c r="C16" t="n">
+        <v>75.29455144646968</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>276.07463346315</v>
+      </c>
+      <c r="F16" t="n">
+        <v>346.8071612488368</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>33.87657392195362</v>
+      </c>
+      <c r="I16" t="n">
+        <v>107.3695800480231</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.47837643271796</v>
+      </c>
+      <c r="C17" t="n">
+        <v>235.111692822192</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>155.9877003057565</v>
+      </c>
+      <c r="I17" t="n">
+        <v>69.1447246603018</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>239.2900450766262</v>
+      </c>
+      <c r="C18" t="n">
+        <v>60.87947346000296</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>65.03862256455093</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.18350024155107</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>75.90257730623949</v>
+      </c>
+      <c r="C19" t="n">
+        <v>89.32044661038876</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>29.78882322601424</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.74614236220452</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7.667570461634568</v>
+      </c>
+      <c r="C20" t="n">
+        <v>43.20147160155991</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>28.63254790952548</v>
+      </c>
+      <c r="I20" t="n">
+        <v>29.12333103813474</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>77.05714292725854</v>
+      </c>
+      <c r="C21" t="n">
+        <v>86.34374143318257</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>30.63205627857815</v>
+      </c>
+      <c r="I21" t="n">
+        <v>326.3945057144833</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>98.13914787069706</v>
+      </c>
+      <c r="C22" t="n">
+        <v>48.08662925813999</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>96.52854033853953</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45.90171255408687</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>322.4820247612177</v>
+      </c>
+      <c r="C23" t="n">
+        <v>171.3480470282408</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2674531824021464</v>
+      </c>
+      <c r="I23" t="n">
+        <v>34.13382486734985</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>278.4459565830988</v>
+      </c>
+      <c r="C24" t="n">
+        <v>115.4972975090672</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>55.24121703266819</v>
+      </c>
+      <c r="I24" t="n">
+        <v>75.29455144646968</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>145.4409848071521</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.804317919985094</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>24.47837643271796</v>
+      </c>
+      <c r="I25" t="n">
+        <v>235.111692822192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>221.3743774736964</v>
+      </c>
+      <c r="C26" t="n">
+        <v>59.82101368052032</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>239.2900450766262</v>
+      </c>
+      <c r="I26" t="n">
+        <v>60.87947346000296</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>91.56705692619558</v>
+      </c>
+      <c r="C27" t="n">
+        <v>110.6733016180095</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>75.90257730623949</v>
+      </c>
+      <c r="I27" t="n">
+        <v>89.32044661038876</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>87.39299027926188</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.75871513226566</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7.667570461634568</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43.20147160155991</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>26.3829807378267</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15.69068127422056</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7.384512186301357</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1792447569074938</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>14.71839197195849</v>
+      </c>
+      <c r="C30" t="n">
+        <v>88.7035329178668</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>14.796011579788</v>
+      </c>
+      <c r="I30" t="n">
+        <v>37.25081439860273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>38.85254287891071</v>
+      </c>
+      <c r="C31" t="n">
+        <v>212.5339687279377</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>77.05714292725854</v>
+      </c>
+      <c r="I31" t="n">
+        <v>86.34374143318257</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>218.8475289372962</v>
+      </c>
+      <c r="C32" t="n">
+        <v>45.27784020683722</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>98.13914787069706</v>
+      </c>
+      <c r="I32" t="n">
+        <v>48.08662925813999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>44.63093786968295</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.54370314954911</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2.650160155965821</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.425028848747059</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>104.4815055246458</v>
+      </c>
+      <c r="C34" t="n">
+        <v>70.76006965048988</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>322.4820247612177</v>
+      </c>
+      <c r="I34" t="n">
+        <v>171.3480470282408</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>317.5612849912438</v>
+      </c>
+      <c r="C35" t="n">
+        <v>300.4585279747945</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>278.4459565830988</v>
+      </c>
+      <c r="I35" t="n">
+        <v>115.4972975090672</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>331.3670156886625</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30.0428264274435</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>145.4409848071521</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.804317919985094</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>221.3743774736964</v>
+      </c>
+      <c r="I37" t="n">
+        <v>59.82101368052032</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>91.56705692619558</v>
+      </c>
+      <c r="I38" t="n">
+        <v>110.6733016180095</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>87.39299027926188</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9.75871513226566</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>26.3829807378267</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15.69068127422056</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>14.71839197195849</v>
+      </c>
+      <c r="I41" t="n">
+        <v>88.7035329178668</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>38.85254287891071</v>
+      </c>
+      <c r="I42" t="n">
+        <v>212.5339687279377</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>218.8475289372962</v>
+      </c>
+      <c r="I43" t="n">
+        <v>45.27784020683722</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>44.63093786968295</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.54370314954911</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>104.4815055246458</v>
+      </c>
+      <c r="I45" t="n">
+        <v>70.76006965048988</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>70.78685829900419</v>
+      </c>
+      <c r="I46" t="n">
+        <v>85.16872623166319</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>89.52668105933141</v>
+      </c>
+      <c r="I47" t="n">
+        <v>120.4345849491137</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>128.5316740120047</v>
+      </c>
+      <c r="I48" t="n">
+        <v>155.6296582100145</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>276.07463346315</v>
+      </c>
+      <c r="I49" t="n">
+        <v>346.8071612488368</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>331.3670156886625</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30.0428264274435</v>
       </c>
     </row>
   </sheetData>
